--- a/Docs/StageDesign.xlsx
+++ b/Docs/StageDesign.xlsx
@@ -327,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2925,13 +2925,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2946,7 +2946,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790700" y="2000250"/>
+          <a:off x="1790700" y="2028825"/>
           <a:ext cx="209550" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3407,9 +3407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3518,10 +3516,10 @@
     <row r="9" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>

--- a/Docs/StageDesign.xlsx
+++ b/Docs/StageDesign.xlsx
@@ -2222,7 +2222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3407,7 +3407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3667,8 +3669,6 @@
       <c r="F22" s="20"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
       <c r="K22" s="26"/>
       <c r="O22" s="37"/>
       <c r="P22" s="5"/>

--- a/Docs/StageDesign.xlsx
+++ b/Docs/StageDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Whole Map" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,2352 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="M27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+사실</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점프라거나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이용해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>장치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>싶은데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나중에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>큰</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구성할때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생각해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보죠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>통과해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옆</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도망쳐</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연구원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에게서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>피하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>튜토리얼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시작</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시퀀스의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+상자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>혹은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고양이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파동을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끌어당기는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배치</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연구원에게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>걸리는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>야리코미</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>요소를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여기까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파동이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>퍼지면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파동을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끌어주는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>역할</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+문</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고양이가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>열</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적당히</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>틈이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처럼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>벗어나려면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파동화를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>쓰게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+고양이가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>복도로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나가게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연구원이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뒤돌아보고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시야가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>머리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>느낌표라도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>띄워서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고양이를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잡으러</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>천천히</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>걸어오는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>식으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+연구원에게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잡힐</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우리로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>게임을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재시작하게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+게임을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시작하게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고양이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있을때는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화면에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> [Q] to be wave </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설명이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뜬다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+오프닝에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나올</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고양이에게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파동화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>능력을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>준</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기계장치</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
@@ -2437,7 +4783,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2472,6 +4818,13 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2791,7 +5144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2834,6 +5187,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2852,6 +5207,145 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D8F96E-95E0-407A-9739-1C191E26B60A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="3590925"/>
+          <a:ext cx="314325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>ㅇㅇㅇ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDBD1EB-825C-4AB5-8E3C-BACB515F61E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="2028825"/>
+          <a:ext cx="209550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2990,7 +5484,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3388,18 +5882,568 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:10" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="22"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="23"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="23"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="23"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="23"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="23"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="23"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="23"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="23"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="23"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="23"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="23"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="23"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="3:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="23"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="23"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="23"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="23"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="23"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="23"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="23"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="23"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="23"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="3:17" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="28"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="3:17" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="22"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="23"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="26"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="23"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="26"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="23"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="26"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="23"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="26"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="23"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="26"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="23"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="26"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="3:17" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="27"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="33"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="34"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="34"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="3:17" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="35"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="22"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="23"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="26"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="23"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="2"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="23"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="2"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="23"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="26"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="23"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="26"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="23"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="26"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="23"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="26"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="23"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="L46" s="26"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="3:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="23"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="26"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="3:17" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="23"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="26"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="3:17" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="28"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3407,9 +6451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
